--- a/simulation-result-1.xlsx
+++ b/simulation-result-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976CAD1-661D-F349-B13B-DE3557B1D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74D485-44B9-1A4A-B26D-1C001590BB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{48D5C10A-5D5D-334E-A31C-46DFAAAAA253}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{48D5C10A-5D5D-334E-A31C-46DFAAAAA253}"/>
   </bookViews>
   <sheets>
     <sheet name="process-1" sheetId="1" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF1451C-9ACE-CB46-AD17-CE49E4AD7D95}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="183" zoomScaleNormal="167" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="167" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD3A6D2-5E46-284E-BC44-297816D5D7F8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3831,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82B756A-06F6-5E44-BEE7-35DBF9E3367D}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -4802,7 +4802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E41E4E-E508-1447-829F-1FF969F70279}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
